--- a/DataFiles/CH 10/Foster.xlsx
+++ b/DataFiles/CH 10/Foster.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cammjd\Dropbox\ASW Files\BusAnalytics (EBA)\EBA 2e\Second Pages\10_Ch10_Camm_Mike_Due_12_14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyconverse/Documents/Hamline Acedmics/Hamline 2024-25/Hamline Spring 25/QMBE 3730/QMBE_3730_Andy_Converse/Untitled/DataFiles/CH 10/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF6275A-396E-F649-B378-EDF80E70AEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="9420" windowHeight="4500"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -97,7 +98,20 @@
     <definedName name="sssolver_tim" localSheetId="0" hidden="1">100</definedName>
     <definedName name="sssolver_tol" localSheetId="0" hidden="1">0.05</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -167,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -294,30 +308,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -326,18 +334,15 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -358,9 +363,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -398,9 +403,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +440,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,7 +475,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -643,331 +648,278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="15">
         <v>3</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="16">
         <v>2</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="16">
         <v>7</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="17">
         <v>6</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="18">
         <v>6</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="19">
         <v>5</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="19">
         <v>2</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="20">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="21">
         <v>2</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>5</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>4</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="23">
         <v>5</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="1">
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>6000</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>4000</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>2000</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>1500</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="24">
         <f>SUMPRODUCT(B5:E7,B17:E19)</f>
         <v>54500</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="6">
         <v>5000</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="8">
         <v>0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <f>SUM(B17:E17)</f>
         <v>5000</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="9">
         <v>1000</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="10">
         <v>4000</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>1000</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <f>SUM(B18:E18)</f>
         <v>6000</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <v>0</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="13">
         <v>0</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="13">
         <v>1000</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="14">
         <v>1500</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <f>SUM(B19:E19)</f>
         <v>2500</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="1">
         <f>SUM(B17:B19)</f>
         <v>6000</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <f>SUM(C17:C19)</f>
         <v>4000</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <f>SUM(D17:D19)</f>
         <v>2000</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1">
         <f>SUM(E17:E19)</f>
         <v>1500</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
